--- a/backend/test/assets/sushi.xlsx
+++ b/backend/test/assets/sushi.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sushi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +33,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Description (EN)</t>
-  </si>
-  <si>
-    <t>Description (PL)</t>
-  </si>
-  <si>
     <t>Picture</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>6x futomaki w tempurze z łososiem, 6x maki z łososiem</t>
+  </si>
+  <si>
+    <t>Description (en)</t>
+  </si>
+  <si>
+    <t>Description (pl)</t>
   </si>
 </sst>
 </file>
@@ -260,7 +260,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -303,7 +303,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -346,7 +346,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -389,7 +389,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -432,7 +432,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -475,7 +475,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -792,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,79 +819,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="147" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="145.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="147.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="151.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="147" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="145.5" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
